--- a/analysis/5.1/td_0.04s.xlsx
+++ b/analysis/5.1/td_0.04s.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D66"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
@@ -102,18 +102,18 @@
         <v>10.1</v>
       </c>
       <c r="B2">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C2">
         <v>0.040000000000000001</v>
       </c>
       <c r="D2">
-        <v>321.61579999999526</v>
+        <v>452.21700000000044</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>20.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="B3">
         <v>1.1000000000000001</v>
@@ -122,7 +122,7 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="D3">
-        <v>281.85532000000342</v>
+        <v>321.61579999999526</v>
       </c>
     </row>
     <row r="4">
@@ -130,18 +130,18 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B4">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C4">
         <v>0.040000000000000001</v>
       </c>
       <c r="D4">
-        <v>300.57033333333436</v>
+        <v>423.45548000000332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B5">
         <v>1.1000000000000001</v>
@@ -150,12 +150,12 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="D5">
-        <v>270.85387999999961</v>
+        <v>281.85532000000342</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B6">
         <v>2.1000000000000001</v>
@@ -164,7 +164,7 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="D6">
-        <v>273.893760000003</v>
+        <v>300.57033333333436</v>
       </c>
     </row>
     <row r="7">
@@ -172,13 +172,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B7">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C7">
         <v>0.040000000000000001</v>
       </c>
       <c r="D7">
-        <v>273.45364000000194</v>
+        <v>388.17403999999954</v>
       </c>
     </row>
     <row r="8">
@@ -186,55 +186,55 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B8">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8">
         <v>0.040000000000000001</v>
       </c>
       <c r="D8">
-        <v>295.93348000000196</v>
+        <v>270.85387999999961</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B9">
-        <v>0.10000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C9">
         <v>0.040000000000000001</v>
       </c>
       <c r="D9">
-        <v>256.49140000000642</v>
+        <v>273.893760000003</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B10">
-        <v>1.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C10">
         <v>0.040000000000000001</v>
       </c>
       <c r="D10">
-        <v>257.48153333333073</v>
+        <v>273.45364000000194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B11">
-        <v>2.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C11">
         <v>0.040000000000000001</v>
       </c>
       <c r="D11">
-        <v>276.47244000000023</v>
+        <v>295.93348000000196</v>
       </c>
     </row>
     <row r="12">
@@ -242,13 +242,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B12">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C12">
         <v>0.040000000000000001</v>
       </c>
       <c r="D12">
-        <v>277.89231999999919</v>
+        <v>256.49140000000642</v>
       </c>
     </row>
     <row r="13">
@@ -256,13 +256,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B13">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C13">
         <v>0.040000000000000001</v>
       </c>
       <c r="D13">
-        <v>192.96849999999915</v>
+        <v>257.48153333333073</v>
       </c>
     </row>
     <row r="14">
@@ -270,55 +270,55 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B14">
-        <v>5.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C14">
         <v>0.040000000000000001</v>
       </c>
       <c r="D14">
-        <v>278.75204000000264</v>
+        <v>276.47244000000023</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B15">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C15">
         <v>0.040000000000000001</v>
       </c>
       <c r="D15">
-        <v>244.82310000000217</v>
+        <v>277.89231999999919</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B16">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C16">
         <v>0.040000000000000001</v>
       </c>
       <c r="D16">
-        <v>242.55463999999884</v>
+        <v>192.96849999999915</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B17">
-        <v>2.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C17">
         <v>0.040000000000000001</v>
       </c>
       <c r="D17">
-        <v>278.53119999999967</v>
+        <v>278.75204000000264</v>
       </c>
     </row>
     <row r="18">
@@ -326,13 +326,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B18">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C18">
         <v>0.040000000000000001</v>
       </c>
       <c r="D18">
-        <v>248.23008000000306</v>
+        <v>244.82310000000217</v>
       </c>
     </row>
     <row r="19">
@@ -340,13 +340,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B19">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C19">
         <v>0.040000000000000001</v>
       </c>
       <c r="D19">
-        <v>276.63096000000201</v>
+        <v>242.55463999999884</v>
       </c>
     </row>
     <row r="20">
@@ -354,13 +354,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B20">
-        <v>5.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C20">
         <v>0.040000000000000001</v>
       </c>
       <c r="D20">
-        <v>276.45084000000094</v>
+        <v>278.53119999999967</v>
       </c>
     </row>
     <row r="21">
@@ -368,55 +368,55 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B21">
-        <v>6.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C21">
         <v>0.040000000000000001</v>
       </c>
       <c r="D21">
-        <v>277.6107199999999</v>
+        <v>248.23008000000306</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B22">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C22">
         <v>0.040000000000000001</v>
       </c>
       <c r="D22">
-        <v>231.59073333333032</v>
+        <v>276.63096000000201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B23">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C23">
         <v>0.040000000000000001</v>
       </c>
       <c r="D23">
-        <v>214.53631999999712</v>
+        <v>276.45084000000094</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B24">
-        <v>2.1000000000000001</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C24">
         <v>0.040000000000000001</v>
       </c>
       <c r="D24">
-        <v>212.47880000000117</v>
+        <v>277.6107199999999</v>
       </c>
     </row>
     <row r="25">
@@ -424,13 +424,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B25">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C25">
         <v>0.040000000000000001</v>
       </c>
       <c r="D25">
-        <v>275.08992000000029</v>
+        <v>231.59073333333032</v>
       </c>
     </row>
     <row r="26">
@@ -438,13 +438,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B26">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C26">
         <v>0.040000000000000001</v>
       </c>
       <c r="D26">
-        <v>275.6897999999992</v>
+        <v>214.53631999999712</v>
       </c>
     </row>
     <row r="27">
@@ -452,13 +452,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B27">
-        <v>5.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C27">
         <v>0.040000000000000001</v>
       </c>
       <c r="D27">
-        <v>201.53168888888905</v>
+        <v>212.47880000000117</v>
       </c>
     </row>
     <row r="28">
@@ -466,55 +466,55 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B28">
-        <v>6.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C28">
         <v>0.040000000000000001</v>
       </c>
       <c r="D28">
-        <v>244.82860000000039</v>
+        <v>275.08992000000029</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B29">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C29">
         <v>0.040000000000000001</v>
       </c>
       <c r="D29">
-        <v>227.50920000000207</v>
+        <v>275.6897999999992</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B30">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C30">
         <v>0.040000000000000001</v>
       </c>
       <c r="D30">
-        <v>194.96808000000175</v>
+        <v>201.53168888888905</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B31">
-        <v>2.1000000000000001</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C31">
         <v>0.040000000000000001</v>
       </c>
       <c r="D31">
-        <v>195.3279600000007</v>
+        <v>244.82860000000039</v>
       </c>
     </row>
     <row r="32">
@@ -522,13 +522,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B32">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C32">
         <v>0.040000000000000001</v>
       </c>
       <c r="D32">
-        <v>195.24783999999963</v>
+        <v>227.50920000000207</v>
       </c>
     </row>
     <row r="33">
@@ -536,13 +536,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B33">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C33">
         <v>0.040000000000000001</v>
       </c>
       <c r="D33">
-        <v>199.4695200000011</v>
+        <v>194.96808000000175</v>
       </c>
     </row>
     <row r="34">
@@ -550,55 +550,55 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B34">
-        <v>5.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C34">
         <v>0.040000000000000001</v>
       </c>
       <c r="D34">
-        <v>245.34764000000084</v>
+        <v>195.3279600000007</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B35">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C35">
         <v>0.040000000000000001</v>
       </c>
       <c r="D35">
-        <v>200.51094999999918</v>
+        <v>195.24783999999963</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B36">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C36">
         <v>0.040000000000000001</v>
       </c>
       <c r="D36">
-        <v>194.56707999999887</v>
+        <v>199.4695200000011</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B37">
-        <v>2.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C37">
         <v>0.040000000000000001</v>
       </c>
       <c r="D37">
-        <v>245.12696000000224</v>
+        <v>245.34764000000084</v>
       </c>
     </row>
     <row r="38">
@@ -606,13 +606,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B38">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C38">
         <v>0.040000000000000001</v>
       </c>
       <c r="D38">
-        <v>194.70443999999975</v>
+        <v>200.51094999999918</v>
       </c>
     </row>
     <row r="39">
@@ -620,13 +620,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B39">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C39">
         <v>0.040000000000000001</v>
       </c>
       <c r="D39">
-        <v>200.70876923076918</v>
+        <v>194.56707999999887</v>
       </c>
     </row>
     <row r="40">
@@ -634,13 +634,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B40">
-        <v>5.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C40">
         <v>0.040000000000000001</v>
       </c>
       <c r="D40">
-        <v>209.58720000000113</v>
+        <v>245.12696000000224</v>
       </c>
     </row>
     <row r="41">
@@ -648,55 +648,55 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B41">
-        <v>6.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C41">
         <v>0.040000000000000001</v>
       </c>
       <c r="D41">
-        <v>199.77345454545468</v>
+        <v>194.70443999999975</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B42">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C42">
         <v>0.040000000000000001</v>
       </c>
       <c r="D42">
-        <v>199.47229999999982</v>
+        <v>200.70876923076918</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B43">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C43">
         <v>0.040000000000000001</v>
       </c>
       <c r="D43">
-        <v>199.46508571428424</v>
+        <v>209.58720000000113</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B44">
-        <v>2.1000000000000001</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C44">
         <v>0.040000000000000001</v>
       </c>
       <c r="D44">
-        <v>198.78209999999996</v>
+        <v>199.77345454545468</v>
       </c>
     </row>
     <row r="45">
@@ -704,13 +704,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B45">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C45">
         <v>0.040000000000000001</v>
       </c>
       <c r="D45">
-        <v>194.34600000000268</v>
+        <v>199.47229999999982</v>
       </c>
     </row>
     <row r="46">
@@ -718,13 +718,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B46">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C46">
         <v>0.040000000000000001</v>
       </c>
       <c r="D46">
-        <v>194.27394000000081</v>
+        <v>199.46508571428424</v>
       </c>
     </row>
     <row r="47">
@@ -732,13 +732,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B47">
-        <v>5.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C47">
         <v>0.040000000000000001</v>
       </c>
       <c r="D47">
-        <v>243.92579999999941</v>
+        <v>198.78209999999996</v>
       </c>
     </row>
     <row r="48">
@@ -746,55 +746,55 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B48">
-        <v>6.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C48">
         <v>0.040000000000000001</v>
       </c>
       <c r="D48">
-        <v>217.58445714285756</v>
+        <v>194.34600000000268</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B49">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C49">
         <v>0.040000000000000001</v>
       </c>
       <c r="D49">
-        <v>198.55948000000029</v>
+        <v>194.27394000000081</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B50">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C50">
         <v>0.040000000000000001</v>
       </c>
       <c r="D50">
-        <v>192.56544000000071</v>
+        <v>243.92579999999941</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B51">
-        <v>2.1000000000000001</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C51">
         <v>0.040000000000000001</v>
       </c>
       <c r="D51">
-        <v>198.58872727272893</v>
+        <v>217.58445714285756</v>
       </c>
     </row>
     <row r="52">
@@ -802,13 +802,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B52">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C52">
         <v>0.040000000000000001</v>
       </c>
       <c r="D52">
-        <v>198.44959999999799</v>
+        <v>198.55948000000029</v>
       </c>
     </row>
     <row r="53">
@@ -816,13 +816,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B53">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C53">
         <v>0.040000000000000001</v>
       </c>
       <c r="D53">
-        <v>198.8212000000004</v>
+        <v>192.56544000000071</v>
       </c>
     </row>
     <row r="54">
@@ -830,55 +830,55 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B54">
-        <v>5.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C54">
         <v>0.040000000000000001</v>
       </c>
       <c r="D54">
-        <v>197.64523999999932</v>
+        <v>198.58872727272893</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>110.09999999999999</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B55">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C55">
         <v>0.040000000000000001</v>
       </c>
       <c r="D55">
-        <v>197.51765714285671</v>
+        <v>198.44959999999799</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>110.09999999999999</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B56">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C56">
         <v>0.040000000000000001</v>
       </c>
       <c r="D56">
-        <v>197.51759999999803</v>
+        <v>198.8212000000004</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>110.09999999999999</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B57">
-        <v>2.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C57">
         <v>0.040000000000000001</v>
       </c>
       <c r="D57">
-        <v>192.48483999999985</v>
+        <v>197.64523999999932</v>
       </c>
     </row>
     <row r="58">
@@ -886,13 +886,13 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B58">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C58">
         <v>0.040000000000000001</v>
       </c>
       <c r="D58">
-        <v>192.62480000000099</v>
+        <v>197.51765714285671</v>
       </c>
     </row>
     <row r="59">
@@ -900,68 +900,110 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B59">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C59">
         <v>0.040000000000000001</v>
       </c>
       <c r="D59">
-        <v>192.6047600000021</v>
+        <v>197.51759999999803</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>120.09999999999999</v>
+        <v>110.09999999999999</v>
       </c>
       <c r="B60">
-        <v>0.10000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C60">
         <v>0.040000000000000001</v>
       </c>
       <c r="D60">
-        <v>188.39879999999991</v>
+        <v>192.48483999999985</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>120.09999999999999</v>
+        <v>110.09999999999999</v>
       </c>
       <c r="B61">
-        <v>1.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C61">
         <v>0.040000000000000001</v>
       </c>
       <c r="D61">
-        <v>187.77129090909077</v>
+        <v>192.62480000000099</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>120.09999999999999</v>
+        <v>110.09999999999999</v>
       </c>
       <c r="B62">
-        <v>2.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C62">
         <v>0.040000000000000001</v>
       </c>
       <c r="D62">
-        <v>188.40900000000045</v>
+        <v>192.6047600000021</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
+        <v>120.09999999999999</v>
+      </c>
+      <c r="B63">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C63">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="D63">
+        <v>188.39879999999991</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>120.09999999999999</v>
+      </c>
+      <c r="B64">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C64">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="D64">
+        <v>187.77129090909077</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>120.09999999999999</v>
+      </c>
+      <c r="B65">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="C65">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="D65">
+        <v>188.40900000000045</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
         <v>130.09999999999999</v>
       </c>
-      <c r="B63">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="C63">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="D63">
+      <c r="B66">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C66">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="D66">
         <v>187.69741538461537</v>
       </c>
     </row>
